--- a/Employee_Reports21/Jayson Ruz Oligan Q0548.xlsx
+++ b/Employee_Reports21/Jayson Ruz Oligan Q0548.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -836,11 +836,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -872,11 +872,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -918,11 +918,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
